--- a/public/distribuidor.xlsx
+++ b/public/distribuidor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>razon_social</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>565656defre</t>
+  </si>
+  <si>
+    <t>Tequeños Fit</t>
+  </si>
+  <si>
+    <t>sdasdasdasd</t>
+  </si>
+  <si>
+    <t>Movistar</t>
+  </si>
+  <si>
+    <t>wqeqweqweqwe/1213</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +463,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
